--- a/medicine/Psychotrope/Craven_A/Craven_A.xlsx
+++ b/medicine/Psychotrope/Craven_A/Craven_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craven A est une marque anglaise de cigarettes, qui s'est d'abord appelée « Black Cat », proposée par la société Carreras établie sur City Road à Londres depuis 1788.
-Cette marque a été très appréciée entre autres par les soldats britanniques durant la Seconde Guerre mondiale[1].
+Cette marque a été très appréciée entre autres par les soldats britanniques durant la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire raconte que le comte de Craven, patron de Carreras, avait donné le nom de « Black Cat » à ces cigarettes en raison de la présence d'un chat noir qui rôdait dans la manufacture. Les « Black Cat » devinrent les Craven A à partir de 1860, mais ont conservé jusqu'à aujourd'hui une tête de chat noir sur leur paquet.
 Les premières Craven A étaient sans filtres, vendues dans une boîte en métal vert. 
@@ -549,12 +563,14 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la Seconde Guerre mondiale, le Général de Gaulle, en exil à  Londres, avait beaucoup de mal à se procurer ses habituelles cigarettes brunes françaises de marque « Gitanes ». N'ayant pas vraiment le choix, il se met à fumer des Craven A et apparemment prit goût au tabac blond, jusque-là rare dans la France occupée.
-Le nom de cette marque est repris de façon anecdotique dans la chanson Les Bêtises par Sabine Paturel[2] ainsi que dans Le Chien de Léo Ferré (1969)[3].
-Le nom  « Craven A »  est aussi repris dans la chanson Tendresse et amitié enregistrée par Robert Charlebois et dont le texte est signé Réjean Ducharme[4]. 
-La marque est citée dans la chanson Moi Gitan, toi Jane de l'artiste Douce Angoisse [5].  
+Le nom de cette marque est repris de façon anecdotique dans la chanson Les Bêtises par Sabine Paturel ainsi que dans Le Chien de Léo Ferré (1969).
+Le nom  « Craven A »  est aussi repris dans la chanson Tendresse et amitié enregistrée par Robert Charlebois et dont le texte est signé Réjean Ducharme. 
+La marque est citée dans la chanson Moi Gitan, toi Jane de l'artiste Douce Angoisse .  
 À noter que, selon son biographe, Jean Gabin était un fumeur régulier de Craven A sans filtre qu'il alternait avec ses Gitanes. Dans le film Le Pacha, un paquet de Craven est visible sur le bureau du « commissaire Louis Joss », ainsi que dans Le cave se rebiffe.
 Sans oublier James Bond (Sean Connery) dans son premier opus, James Bond 007 contre Dr No.
 Enfin, le pianiste français Samson François était, selon ses biographes, un gros consommateur de Craven A.
